--- a/doc/submission/Table1.xlsx
+++ b/doc/submission/Table1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamklie/Desktop/lab/projects/predictMEE/doc/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamklie/Desktop/lab/projects/predictMEE/doc/submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CB9F194C-75AA-B64F-ABA2-2E75AAE87955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6A0F50-AC7B-EF4D-A08E-F9BCDE1BFAE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29280" yWindow="4600" windowWidth="28040" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Age</t>
   </si>
@@ -75,13 +75,19 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -216,6 +222,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -404,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -520,15 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -541,58 +544,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -653,18 +604,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -717,7 +663,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -737,24 +685,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -796,7 +726,31 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -859,17 +813,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A1:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:E12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
     <sortCondition ref="A1:A11"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Class Name" dataDxfId="4"/>
-    <tableColumn id="2" name="# TITLES" dataDxfId="3"/>
-    <tableColumn id="3" name="# Predicted" dataDxfId="2"/>
-    <tableColumn id="5" name="# Correct" dataDxfId="1"/>
-    <tableColumn id="4" name="Accuracy" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Class Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="# TITLES" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="# Predicted" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="# Correct" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Accuracy" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1171,11 +1125,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:E11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1184,14 +1138,14 @@
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1202,173 +1156,190 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>1000</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="2">
         <v>224</v>
       </c>
       <c r="D2" s="2">
         <v>106</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="3">
         <v>0.47321428571428498</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>702</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>144</v>
       </c>
       <c r="D3" s="2">
         <v>68</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="3">
         <v>0.47222222222222199</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>122</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>23</v>
       </c>
       <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="3">
         <v>0.95652173913043403</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>78</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>12</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="3">
         <v>0.83333333333333304</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>595</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>130</v>
       </c>
       <c r="D6" s="2">
         <v>81</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="3">
         <v>0.62307692307692297</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>275</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>11</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="3">
         <v>0.36666666666666597</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>190</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>4</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>1000</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>855</v>
       </c>
       <c r="D9" s="2">
         <v>811</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="3">
         <v>0.94853801169590601</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>1000</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>295</v>
       </c>
       <c r="D10" s="2">
         <v>242</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="3">
         <v>0.82033898305084696</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="2">
         <v>1000</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="2">
         <v>237</v>
       </c>
       <c r="D11" s="2">
         <v>151</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="3">
         <v>0.63713080168776304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
